--- a/Testdata/testStudent.xlsx
+++ b/Testdata/testStudent.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Studentnummer</t>
   </si>
@@ -50,16 +50,25 @@
     <t>Achternaam is inclusief tussenvoegsel</t>
   </si>
   <si>
-    <t>Dennis</t>
-  </si>
-  <si>
-    <t>Dolman</t>
-  </si>
-  <si>
-    <t>ddolman@student.avans.nl</t>
-  </si>
-  <si>
-    <t>DennisGroep</t>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>import@user.nl</t>
+  </si>
+  <si>
+    <t>ImportGroep</t>
+  </si>
+  <si>
+    <t>Andere</t>
+  </si>
+  <si>
+    <t>ImportUser</t>
+  </si>
+  <si>
+    <t>Andere@importuser.nl</t>
   </si>
 </sst>
 </file>
@@ -400,7 +409,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +448,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2062360</v>
+        <v>5000000</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -458,7 +467,21 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="2"/>
+      <c r="A3">
+        <v>6000000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
@@ -469,8 +492,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>